--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H2">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I2">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J2">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N2">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O2">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P2">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q2">
-        <v>5.652262822943556</v>
+        <v>82.50567294503153</v>
       </c>
       <c r="R2">
-        <v>50.870365406492</v>
+        <v>742.5510565052839</v>
       </c>
       <c r="S2">
-        <v>0.006748765392358878</v>
+        <v>0.05158482241338954</v>
       </c>
       <c r="T2">
-        <v>0.006748765392358877</v>
+        <v>0.05158482241338953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H3">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I3">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J3">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N3">
         <v>27.664827</v>
       </c>
       <c r="O3">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P3">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q3">
-        <v>63.62256705308867</v>
+        <v>128.4626324037506</v>
       </c>
       <c r="R3">
-        <v>572.6031034777981</v>
+        <v>1156.163691633756</v>
       </c>
       <c r="S3">
-        <v>0.07596493513323749</v>
+        <v>0.08031838106113011</v>
       </c>
       <c r="T3">
-        <v>0.07596493513323747</v>
+        <v>0.08031838106113012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.899291333333333</v>
+        <v>13.93060933333333</v>
       </c>
       <c r="H4">
-        <v>20.697874</v>
+        <v>41.791828</v>
       </c>
       <c r="I4">
-        <v>0.1714739209386085</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="J4">
-        <v>0.1714739209386084</v>
+        <v>0.2372898381934647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N4">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O4">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P4">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q4">
-        <v>74.33894421115556</v>
+        <v>168.5572385462333</v>
       </c>
       <c r="R4">
-        <v>669.0504979004</v>
+        <v>1517.0151469161</v>
       </c>
       <c r="S4">
-        <v>0.08876022041301211</v>
+        <v>0.105386634718945</v>
       </c>
       <c r="T4">
-        <v>0.0887602204130121</v>
+        <v>0.105386634718945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>28.605264</v>
       </c>
       <c r="I5">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J5">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N5">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O5">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P5">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q5">
-        <v>7.811646270901334</v>
+        <v>56.47268064202133</v>
       </c>
       <c r="R5">
-        <v>70.30481643811201</v>
+        <v>508.2541257781919</v>
       </c>
       <c r="S5">
-        <v>0.009327055316043052</v>
+        <v>0.03530827757828935</v>
       </c>
       <c r="T5">
-        <v>0.009327055316043052</v>
+        <v>0.03530827757828935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>28.605264</v>
       </c>
       <c r="I6">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J6">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N6">
         <v>27.664827</v>
       </c>
       <c r="O6">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P6">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q6">
-        <v>87.92885331659201</v>
+        <v>87.928853316592</v>
       </c>
       <c r="R6">
-        <v>791.3596798493281</v>
+        <v>791.3596798493279</v>
       </c>
       <c r="S6">
-        <v>0.1049864843234205</v>
+        <v>0.05497554436494684</v>
       </c>
       <c r="T6">
-        <v>0.1049864843234205</v>
+        <v>0.05497554436494684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>28.605264</v>
       </c>
       <c r="I7">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807704</v>
       </c>
       <c r="J7">
-        <v>0.2369836040920929</v>
+        <v>0.1624178407807703</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N7">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O7">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P7">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q7">
-        <v>102.7393018549333</v>
+        <v>115.3724194052</v>
       </c>
       <c r="R7">
-        <v>924.6537166944001</v>
+        <v>1038.3517746468</v>
       </c>
       <c r="S7">
-        <v>0.1226700644526293</v>
+        <v>0.07213401883753419</v>
       </c>
       <c r="T7">
-        <v>0.1226700644526293</v>
+        <v>0.07213401883753418</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H8">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I8">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J8">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N8">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O8">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P8">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q8">
-        <v>6.502609405320889</v>
+        <v>64.22304575950378</v>
       </c>
       <c r="R8">
-        <v>58.523484647888</v>
+        <v>578.007411835534</v>
       </c>
       <c r="S8">
-        <v>0.007764073732828117</v>
+        <v>0.04015401962187736</v>
       </c>
       <c r="T8">
-        <v>0.007764073732828115</v>
+        <v>0.04015401962187735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H9">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I9">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J9">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N9">
         <v>27.664827</v>
       </c>
       <c r="O9">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P9">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q9">
-        <v>73.19417300107467</v>
+        <v>99.99629388816733</v>
       </c>
       <c r="R9">
-        <v>658.7475570096721</v>
+        <v>899.966644993506</v>
       </c>
       <c r="S9">
-        <v>0.08739337096407948</v>
+        <v>0.06252044105688191</v>
       </c>
       <c r="T9">
-        <v>0.08739337096407948</v>
+        <v>0.06252044105688191</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.937245333333333</v>
+        <v>10.84369266666667</v>
       </c>
       <c r="H10">
-        <v>23.811736</v>
+        <v>32.531078</v>
       </c>
       <c r="I10">
-        <v>0.1972710693028191</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="J10">
-        <v>0.197271069302819</v>
+        <v>0.1847082217815162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N10">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O10">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P10">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q10">
-        <v>85.52276016728889</v>
+        <v>131.2062414358167</v>
       </c>
       <c r="R10">
-        <v>769.7048415056</v>
+        <v>1180.85617292235</v>
       </c>
       <c r="S10">
-        <v>0.1021136246059115</v>
+        <v>0.08203376110275695</v>
       </c>
       <c r="T10">
-        <v>0.1021136246059114</v>
+        <v>0.08203376110275695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H11">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I11">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J11">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N11">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O11">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P11">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q11">
-        <v>4.289898070447556</v>
+        <v>50.42618747844455</v>
       </c>
       <c r="R11">
-        <v>38.60908263402801</v>
+        <v>453.8356873060009</v>
       </c>
       <c r="S11">
-        <v>0.005122110655765008</v>
+        <v>0.03152784327682396</v>
       </c>
       <c r="T11">
-        <v>0.005122110655765008</v>
+        <v>0.03152784327682395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H12">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I12">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J12">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N12">
         <v>27.664827</v>
       </c>
       <c r="O12">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P12">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q12">
-        <v>48.28762146906467</v>
+        <v>78.51436821661765</v>
       </c>
       <c r="R12">
-        <v>434.5885932215821</v>
+        <v>706.6293139495589</v>
       </c>
       <c r="S12">
-        <v>0.05765510891088362</v>
+        <v>0.04908934860821101</v>
       </c>
       <c r="T12">
-        <v>0.05765510891088362</v>
+        <v>0.04908934860821101</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.236355333333334</v>
+        <v>8.514172333333333</v>
       </c>
       <c r="H13">
-        <v>15.709066</v>
+        <v>25.542517</v>
       </c>
       <c r="I13">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="J13">
-        <v>0.1301435664988289</v>
+        <v>0.1450278682708931</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N13">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O13">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P13">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q13">
-        <v>56.42103053595557</v>
+        <v>103.0195695445583</v>
       </c>
       <c r="R13">
-        <v>507.7892748236001</v>
+        <v>927.176125901025</v>
       </c>
       <c r="S13">
-        <v>0.06736634693218031</v>
+        <v>0.0644106763858581</v>
       </c>
       <c r="T13">
-        <v>0.06736634693218031</v>
+        <v>0.0644106763858581</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H14">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I14">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J14">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N14">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O14">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P14">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q14">
-        <v>5.081896112483779</v>
+        <v>37.98329092533844</v>
       </c>
       <c r="R14">
-        <v>45.73706501235401</v>
+        <v>341.8496183280459</v>
       </c>
       <c r="S14">
-        <v>0.006067751215013898</v>
+        <v>0.02374820114933304</v>
       </c>
       <c r="T14">
-        <v>0.006067751215013898</v>
+        <v>0.02374820114933304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H15">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I15">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J15">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N15">
         <v>27.664827</v>
       </c>
       <c r="O15">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P15">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q15">
-        <v>57.20244905472235</v>
+        <v>59.14058228307932</v>
       </c>
       <c r="R15">
-        <v>514.8220414925011</v>
+        <v>532.2652405477139</v>
       </c>
       <c r="S15">
-        <v>0.06829935560881066</v>
+        <v>0.03697632327088138</v>
       </c>
       <c r="T15">
-        <v>0.06829935560881066</v>
+        <v>0.03697632327088139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.203087666666668</v>
+        <v>6.413260666666666</v>
       </c>
       <c r="H16">
-        <v>18.609263</v>
+        <v>19.239782</v>
       </c>
       <c r="I16">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="J16">
-        <v>0.1541705825626232</v>
+        <v>0.1092415665009325</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N16">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O16">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P16">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q16">
-        <v>66.83744252997779</v>
+        <v>77.59901108301666</v>
       </c>
       <c r="R16">
-        <v>601.5369827698001</v>
+        <v>698.39109974715</v>
       </c>
       <c r="S16">
-        <v>0.07980347573879863</v>
+        <v>0.04851704208071811</v>
       </c>
       <c r="T16">
-        <v>0.07980347573879863</v>
+        <v>0.04851704208071811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H17">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I17">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J17">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8192526666666667</v>
+        <v>5.922617666666667</v>
       </c>
       <c r="N17">
-        <v>2.457758</v>
+        <v>17.767853</v>
       </c>
       <c r="O17">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="P17">
-        <v>0.03935738656594368</v>
+        <v>0.2173916203328182</v>
       </c>
       <c r="Q17">
-        <v>3.624500508412444</v>
+        <v>56.08910625725144</v>
       </c>
       <c r="R17">
-        <v>32.620504575712</v>
+        <v>504.8019563152631</v>
       </c>
       <c r="S17">
-        <v>0.004327630253934732</v>
+        <v>0.03506845629310497</v>
       </c>
       <c r="T17">
-        <v>0.004327630253934731</v>
+        <v>0.03506845629310496</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H18">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I18">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J18">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.221609000000001</v>
+        <v>9.221608999999999</v>
       </c>
       <c r="N18">
         <v>27.664827</v>
       </c>
       <c r="O18">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="P18">
-        <v>0.4430115945178313</v>
+        <v>0.3384821772083041</v>
       </c>
       <c r="Q18">
-        <v>40.79782449152533</v>
+        <v>87.33162195744633</v>
       </c>
       <c r="R18">
-        <v>367.180420423728</v>
+        <v>785.984597617017</v>
       </c>
       <c r="S18">
-        <v>0.04871233957739958</v>
+        <v>0.05460213884625284</v>
       </c>
       <c r="T18">
-        <v>0.04871233957739957</v>
+        <v>0.05460213884625285</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.424154666666666</v>
+        <v>9.470323666666667</v>
       </c>
       <c r="H19">
-        <v>13.272464</v>
+        <v>28.410971</v>
       </c>
       <c r="I19">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="J19">
-        <v>0.1099572566050275</v>
+        <v>0.1613146644724231</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.77486666666667</v>
+        <v>12.099775</v>
       </c>
       <c r="N19">
-        <v>32.3246</v>
+        <v>36.299325</v>
       </c>
       <c r="O19">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="P19">
-        <v>0.517631018916225</v>
+        <v>0.4441262024588777</v>
       </c>
       <c r="Q19">
-        <v>47.66967664604445</v>
+        <v>114.5887855438417</v>
       </c>
       <c r="R19">
-        <v>429.0270898144</v>
+        <v>1031.299069894575</v>
       </c>
       <c r="S19">
-        <v>0.0569172867736932</v>
+        <v>0.07164406933306532</v>
       </c>
       <c r="T19">
-        <v>0.05691728677369319</v>
+        <v>0.07164406933306532</v>
       </c>
     </row>
   </sheetData>
